--- a/spliced/walkingToRunning/2023-03-24_09-58-57/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_09-58-57/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.538713003965031</v>
+        <v>4.275845370836725</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.413025014352484</v>
+        <v>-5.77583529645165</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.56981251863826</v>
+        <v>-10.19375841409568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.13686267801581</v>
+        <v>0.6221833005047384</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.425703170315554</v>
+        <v>-4.507310633691367</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.380249628284613</v>
+        <v>-10.29080534301348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.59200528484063</v>
+        <v>2.215511573241061</v>
       </c>
       <c r="B4" t="n">
-        <v>-12.57661691448033</v>
+        <v>-1.993124782639061</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.450088987414464</v>
+        <v>-10.44278157637424</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.275845370836725</v>
+        <v>4.329553655330059</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.77583529645165</v>
+        <v>1.845118298626538</v>
       </c>
       <c r="C5" t="n">
-        <v>-10.19375841409568</v>
+        <v>-8.935318364392899</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.6221833005047384</v>
+        <v>12.96200734976949</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.507310633691367</v>
+        <v>-5.231297192157526</v>
       </c>
       <c r="C6" t="n">
-        <v>-10.29080534301348</v>
+        <v>0.7199282710183832</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.215511573241061</v>
+        <v>-2.641056214403002</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.993124782639061</v>
+        <v>-7.670066910302078</v>
       </c>
       <c r="C7" t="n">
-        <v>-10.44278157637424</v>
+        <v>-6.659932584570555</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.329553655330059</v>
+        <v>-10.01989353103133</v>
       </c>
       <c r="B8" t="n">
-        <v>1.845118298626538</v>
+        <v>-5.894216838299037</v>
       </c>
       <c r="C8" t="n">
-        <v>-8.935318364392899</v>
+        <v>-4.208720184812602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12.96200734976949</v>
+        <v>18.6824656044877</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.231297192157526</v>
+        <v>-5.135815050777897</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7199282710183832</v>
+        <v>-8.585992000246984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.641056214403002</v>
+        <v>20.39061579608261</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.670066910302078</v>
+        <v>-16.68983828461418</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.659932584570555</v>
+        <v>-10.62651905597464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-10.01989353103133</v>
+        <v>37.93301056535422</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.894216838299037</v>
+        <v>-4.661358194863217</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.208720184812602</v>
+        <v>-0.6969916964537886</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18.6824656044877</v>
+        <v>2.130085897125618</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.135815050777897</v>
+        <v>-8.977323400894459</v>
       </c>
       <c r="C12" t="n">
-        <v>-8.585992000246984</v>
+        <v>-5.93280473491486</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20.39061579608261</v>
+        <v>-2.945472493267677</v>
       </c>
       <c r="B13" t="n">
-        <v>-16.68983828461418</v>
+        <v>-38.83042448959086</v>
       </c>
       <c r="C13" t="n">
-        <v>-10.62651905597464</v>
+        <v>-2.776809974004806</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>37.93301056535422</v>
+        <v>4.761968791884873</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.661358194863217</v>
+        <v>-2.450371867058256</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6969916964537886</v>
+        <v>-21.97076380172833</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.130085897125618</v>
+        <v>-8.868669970723605</v>
       </c>
       <c r="B15" t="n">
-        <v>-8.977323400894459</v>
+        <v>-16.28519311687272</v>
       </c>
       <c r="C15" t="n">
-        <v>-5.93280473491486</v>
+        <v>-8.666557632036744</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.945472493267677</v>
+        <v>-7.487835359253294</v>
       </c>
       <c r="B16" t="n">
-        <v>-38.83042448959086</v>
+        <v>-63.21479523581927</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.776809974004806</v>
+        <v>15.10544187110538</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.761968791884873</v>
+        <v>6.800529531184445</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.450371867058256</v>
+        <v>-1.221064970797376</v>
       </c>
       <c r="C17" t="n">
-        <v>-21.97076380172833</v>
+        <v>2.408111162633729</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-8.868669970723605</v>
+        <v>-10.6902578213072</v>
       </c>
       <c r="B18" t="n">
-        <v>-16.28519311687272</v>
+        <v>-37.54249508748885</v>
       </c>
       <c r="C18" t="n">
-        <v>-8.666557632036744</v>
+        <v>29.03655345327873</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-7.487835359253294</v>
+        <v>-28.48631326624204</v>
       </c>
       <c r="B19" t="n">
-        <v>-63.21479523581927</v>
+        <v>16.53431056169849</v>
       </c>
       <c r="C19" t="n">
-        <v>15.10544187110538</v>
+        <v>-18.38939690429892</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.800529531184445</v>
+        <v>-6.227460877207299</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.221064970797376</v>
+        <v>-5.338711252148522</v>
       </c>
       <c r="C20" t="n">
-        <v>2.408111162633729</v>
+        <v>-15.25327578487011</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-10.6902578213072</v>
+        <v>-2.195728558021952</v>
       </c>
       <c r="B21" t="n">
-        <v>-37.54249508748885</v>
+        <v>-9.250842510453845</v>
       </c>
       <c r="C21" t="n">
-        <v>29.03655345327873</v>
+        <v>-7.278287349931375</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22.6993431820965</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9.916446260157828</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8.042439793580312</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10.05702973692206</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.430093637248776</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.092578779130952</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-17.00681210844283</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-24.96814476563599</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-13.94656551924312</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33.74133814101275</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.435616121996308</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-12.86083946612057</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-5.288869998599139</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-18.46977404460015</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-9.24161248559119</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-25.29642678267203</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-20.23905866738133</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10.65897996633644</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.936601254763914</v>
+      </c>
+      <c r="B28" t="n">
+        <v>18.79409311281742</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10.11689840227166</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-36.19211913115269</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-74.38502144013573</v>
+      </c>
+      <c r="C29" t="n">
+        <v>47.36963078799701</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-34.86098349654431</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.257336098075001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-17.16005880880736</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-23.05234499425689</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-7.394026237846306</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-17.08371260982228</v>
       </c>
     </row>
   </sheetData>
